--- a/Goaaha_Rainbow开发进度表(不定期更新).xlsx
+++ b/Goaaha_Rainbow开发进度表(不定期更新).xlsx
@@ -326,15 +326,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -344,34 +368,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -882,416 +882,430 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>42863</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>42864</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>42863</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>42864</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>42864</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>42864</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>42864</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>42865</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>42865</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>42866</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>42865</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>42866</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>42865</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>42866</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>42865</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>42866</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>42866</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>42869</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>42866</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>42870</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="6">
         <v>42870</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>42871</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>42870</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>42873</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="9" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="6">
         <v>42870</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="6">
         <v>42872</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="6">
         <v>42870</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="6">
         <v>42873</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="6">
         <v>42870</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="6">
         <v>42872</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="6">
         <v>42870</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="6">
+        <v>42881</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="B11" s="9" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="6">
         <v>42870</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="6">
         <v>42881</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="6">
         <v>42870</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="6">
+        <v>42883</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="17"/>
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="6">
         <v>42874</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="6">
         <v>42874</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="6">
         <v>42870</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="6">
+        <v>42883</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11"/>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="6">
         <v>42875</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="6">
         <v>42875</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="6">
         <v>42870</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="6">
+        <v>42883</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11"/>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="17"/>
+      <c r="B14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="6">
         <v>42876</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="6">
         <v>42880</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="E14" s="6">
+        <v>42884</v>
+      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12" t="s">
+      <c r="A15" s="17"/>
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="6">
         <v>42875</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="6">
         <v>42881</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="E15" s="6">
+        <v>42884</v>
+      </c>
+      <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="6">
         <v>42884</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="6">
         <v>42890</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="E16" s="6">
+        <v>42884</v>
+      </c>
+      <c r="F16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>42891</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>42893</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>42893</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>42894</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>42894</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>42895</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>42895</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>42896</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>42896</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>42897</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="6">
         <v>42898</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="6">
         <v>42904</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>42905</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>42907</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="6"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="14"/>
+      <c r="B24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>42907</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>42908</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>42908</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>42909</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>42909</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>42911</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Goaaha_Rainbow开发进度表(不定期更新).xlsx
+++ b/Goaaha_Rainbow开发进度表(不定期更新).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Goaaha_Rainbow开发进度表</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -83,14 +83,6 @@
   </si>
   <si>
     <t>货币兑换实时汇率调整代码开发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>聊天界面用户自定义背景</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三方登录模块开发</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -318,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -336,9 +328,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -882,37 +871,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -932,7 +921,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
@@ -950,7 +939,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
@@ -968,7 +957,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
@@ -986,7 +975,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +993,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1024,7 +1013,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="16"/>
       <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
@@ -1042,7 +1031,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
@@ -1060,7 +1049,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
@@ -1078,7 +1067,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
@@ -1096,7 +1085,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
@@ -1119,74 +1108,70 @@
         <v>20</v>
       </c>
       <c r="C14" s="6">
-        <v>42876</v>
+        <v>42884</v>
       </c>
       <c r="D14" s="6">
-        <v>42880</v>
+        <v>42890</v>
       </c>
       <c r="E14" s="6">
         <v>42884</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="17"/>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="6">
-        <v>42875</v>
-      </c>
-      <c r="D15" s="6">
-        <v>42881</v>
-      </c>
-      <c r="E15" s="6">
-        <v>42884</v>
-      </c>
-      <c r="F15" s="5"/>
+      <c r="B15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="4">
+        <v>42891</v>
+      </c>
+      <c r="D15" s="4">
+        <v>42893</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="18"/>
-      <c r="B16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="6">
-        <v>42884</v>
-      </c>
-      <c r="D16" s="6">
-        <v>42890</v>
-      </c>
-      <c r="E16" s="6">
-        <v>42884</v>
-      </c>
-      <c r="F16" s="5"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <v>42893</v>
+      </c>
+      <c r="D16" s="4">
+        <v>42894</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="A17" s="13"/>
       <c r="B17" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="4">
-        <v>42891</v>
+        <v>42894</v>
       </c>
       <c r="D17" s="4">
-        <v>42893</v>
+        <v>42895</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="4">
-        <v>42893</v>
+        <v>42895</v>
       </c>
       <c r="D18" s="4">
-        <v>42894</v>
+        <v>42896</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1197,70 +1182,70 @@
         <v>26</v>
       </c>
       <c r="C19" s="4">
-        <v>42894</v>
+        <v>42896</v>
       </c>
       <c r="D19" s="4">
-        <v>42895</v>
+        <v>42897</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4">
-        <v>42895</v>
-      </c>
-      <c r="D20" s="4">
-        <v>42896</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="B20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="6">
+        <v>42898</v>
+      </c>
+      <c r="D20" s="6">
+        <v>42904</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
+      <c r="A21" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="B21" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C21" s="4">
-        <v>42896</v>
+        <v>42905</v>
       </c>
       <c r="D21" s="4">
-        <v>42897</v>
+        <v>42907</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="6">
-        <v>42898</v>
-      </c>
-      <c r="D22" s="6">
-        <v>42904</v>
-      </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="4">
+        <v>42907</v>
+      </c>
+      <c r="D22" s="4">
+        <v>42908</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="13" t="s">
-        <v>31</v>
-      </c>
+      <c r="A23" s="13"/>
       <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C23" s="4">
-        <v>42905</v>
+        <v>42908</v>
       </c>
       <c r="D23" s="4">
-        <v>42907</v>
+        <v>42909</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1271,49 +1256,21 @@
         <v>33</v>
       </c>
       <c r="C24" s="4">
-        <v>42907</v>
+        <v>42909</v>
       </c>
       <c r="D24" s="4">
-        <v>42908</v>
+        <v>42911</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="4">
-        <v>42908</v>
-      </c>
-      <c r="D25" s="4">
-        <v>42909</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="4">
-        <v>42909</v>
-      </c>
-      <c r="D26" s="4">
-        <v>42911</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A8:A14"/>
+    <mergeCell ref="A15:A19"/>
+    <mergeCell ref="A21:A24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
